--- a/sc2002/target/classes/Appointment.xlsx
+++ b/sc2002/target/classes/Appointment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spyridon/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spyridon/Documents/GitHub/SC2002/sc2002/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192EB134-2178-B041-827B-64865F67AE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6C0AB3-32AC-954B-AC80-AFFECDFFAA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="2620" windowWidth="25640" windowHeight="14440" xr2:uid="{F633A95B-EE1A-8042-A571-4F7517FFD213}"/>
+    <workbookView xWindow="4600" yWindow="2620" windowWidth="25640" windowHeight="14440" xr2:uid="{F633A95B-EE1A-8042-A571-4F7517FFD213}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Patient ID</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>P1003</t>
+  </si>
+  <si>
+    <t>2024-10-11 14:30:45</t>
+  </si>
+  <si>
+    <t>2024-10-12 14:30:45</t>
   </si>
 </sst>
 </file>
@@ -173,7 +179,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -185,7 +191,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -505,13 +511,13 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -576,8 +582,8 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
-        <v>45575.604687500003</v>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -593,8 +599,8 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="7">
-        <v>45576.520844907405</v>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -610,8 +616,8 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
-        <v>45576.604178240741</v>
+      <c r="D6" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/sc2002/target/classes/Appointment.xlsx
+++ b/sc2002/target/classes/Appointment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spyridon/Documents/GitHub/SC2002/sc2002/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayes/Documents/GitHub/SC2002/sc2002/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6C0AB3-32AC-954B-AC80-AFFECDFFAA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22535E3-E26B-FC43-8547-17C81C6E7550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="2620" windowWidth="25640" windowHeight="14440" xr2:uid="{F633A95B-EE1A-8042-A571-4F7517FFD213}"/>
+    <workbookView xWindow="6780" yWindow="6060" windowWidth="25640" windowHeight="14440" xr2:uid="{F633A95B-EE1A-8042-A571-4F7517FFD213}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Patient ID</t>
   </si>
@@ -59,34 +59,28 @@
     <t>D001</t>
   </si>
   <si>
-    <t>2024-10-10 14:30:45</t>
-  </si>
-  <si>
     <t>D002</t>
   </si>
   <si>
-    <t>2024-10-10 12:30:01</t>
-  </si>
-  <si>
     <t>P1002</t>
   </si>
   <si>
     <t>Completed</t>
   </si>
   <si>
-    <t>Confirmed</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>P1003</t>
-  </si>
-  <si>
-    <t>2024-10-11 14:30:45</t>
-  </si>
-  <si>
-    <t>2024-10-12 14:30:45</t>
+    <t>2024-10-10 14:00:00</t>
+  </si>
+  <si>
+    <t>2024-10-10 15:00:00</t>
+  </si>
+  <si>
+    <t>2024-10-10 12:00:00</t>
+  </si>
+  <si>
+    <t>2024-10-10 16:00:00</t>
+  </si>
+  <si>
+    <t>2024-10-10 13:00:00</t>
   </si>
 </sst>
 </file>
@@ -171,15 +165,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -188,12 +179,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,9 +201,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -252,7 +241,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -358,7 +347,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -500,7 +489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -508,16 +497,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15781EB5-0BC0-AF4B-9031-AA372D6432D7}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -533,10 +523,12 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -548,11 +540,14 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -560,21 +555,24 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -582,45 +580,14 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/sc2002/target/classes/Appointment.xlsx
+++ b/sc2002/target/classes/Appointment.xlsx
@@ -70,7 +70,7 @@
     <t>16:00:00</t>
   </si>
   <si>
-    <t>P1003</t>
+    <t/>
   </si>
   <si>
     <t>18/10/2024</t>
@@ -167,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -189,6 +189,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -504,13 +507,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -606,7 +609,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -629,7 +632,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -652,8 +655,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
+      <c r="A7" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
@@ -675,8 +678,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
+      <c r="A8" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>

--- a/sc2002/target/classes/Appointment.xlsx
+++ b/sc2002/target/classes/Appointment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>Patient ID</t>
   </si>
@@ -76,7 +76,10 @@
     <t>18/10/2024</t>
   </si>
   <si>
-    <t>Pending</t>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
   </si>
   <si>
     <t>17:00:00</t>
@@ -632,8 +635,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="8" t="s">
-        <v>18</v>
+      <c r="A6" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
@@ -651,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
@@ -691,10 +694,10 @@
         <v>19</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>20</v>

--- a/sc2002/target/classes/Appointment.xlsx
+++ b/sc2002/target/classes/Appointment.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayes/Documents/GitHub/SC2002/sc2002/src/main/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0D4BEA-88F7-BD43-B4CF-3FFB121F2A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
   <si>
     <t>Patient ID</t>
   </si>
@@ -46,30 +52,15 @@
     <t>10/10/2024</t>
   </si>
   <si>
-    <t>14:00:00</t>
-  </si>
-  <si>
-    <t>15:00:00</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
     <t>D002</t>
   </si>
   <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
     <t>P1002</t>
   </si>
   <si>
-    <t>16:00:00</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -82,16 +73,37 @@
     <t>Confirmed</t>
   </si>
   <si>
-    <t>17:00:00</t>
-  </si>
-  <si>
-    <t>18:00:00</t>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>19/10/2024</t>
+  </si>
+  <si>
+    <t>11:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -170,47 +182,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -221,10 +229,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -262,71 +270,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -354,7 +362,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -377,11 +385,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -390,13 +398,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -406,7 +414,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -415,7 +423,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -424,7 +432,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -432,10 +440,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -500,26 +508,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="12.5"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.33203125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.33203125"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="9" width="22.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.5"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,175 +540,221 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s" s="0">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="E7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C9" t="n" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s" s="9">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s" s="9">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C5" s="5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="C10" t="n" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s" s="9">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s" s="9">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s" s="0">
         <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/sc2002/target/classes/Appointment.xlsx
+++ b/sc2002/target/classes/Appointment.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>Patient ID</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>11:00</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -736,7 +739,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>8</v>
@@ -754,7 +757,7 @@
         <v>22</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/sc2002/target/classes/Appointment.xlsx
+++ b/sc2002/target/classes/Appointment.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayes/Documents/GitHub/SC2002/sc2002/src/main/resources/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0D4BEA-88F7-BD43-B4CF-3FFB121F2A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>Patient ID</t>
   </si>
@@ -52,16 +46,28 @@
     <t>10/10/2024</t>
   </si>
   <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
     <t>Completed</t>
   </si>
   <si>
     <t>D002</t>
   </si>
   <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
     <t>P1002</t>
   </si>
   <si>
-    <t/>
+    <t>16:00</t>
   </si>
   <si>
     <t>18/10/2024</t>
@@ -73,25 +79,10 @@
     <t>Confirmed</t>
   </si>
   <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>16:00</t>
+    <t>17:00</t>
   </si>
   <si>
     <t>18:00</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>17:00</t>
   </si>
   <si>
     <t>19/10/2024</t>
@@ -106,9 +97,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +131,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -185,43 +182,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="12">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -232,10 +236,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -273,71 +277,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,7 +369,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -388,11 +392,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -401,13 +405,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -417,7 +421,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -426,7 +430,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -435,7 +439,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -443,10 +447,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -511,26 +515,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="12.5"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="16.33203125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.33203125"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="9" width="22.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.5"/>
+    <col min="1" max="1" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,221 +547,213 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s" s="0">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s" s="0">
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s" s="9">
+      <c r="G10" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F10" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/sc2002/target/classes/Appointment.xlsx
+++ b/sc2002/target/classes/Appointment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
   <si>
     <t>Patient ID</t>
   </si>
@@ -76,7 +76,7 @@
     <t>Available</t>
   </si>
   <si>
-    <t>Confirmed</t>
+    <t>Pending</t>
   </si>
   <si>
     <t>17:00</t>
@@ -91,7 +91,7 @@
     <t>11:00</t>
   </si>
   <si>
-    <t>Pending</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -99,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,12 +131,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -182,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,17 +199,14 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,13 +516,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="12.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="12.576428571428572"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="9" width="16.290714285714284"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="16.290714285714284"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="22.005"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="22.005"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="8" width="12.576428571428572"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -671,7 +662,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -692,7 +685,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
@@ -709,51 +704,51 @@
         <v>22</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/sc2002/target/classes/Appointment.xlsx
+++ b/sc2002/target/classes/Appointment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
   <si>
     <t>Patient ID</t>
   </si>
@@ -640,7 +640,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
@@ -658,7 +658,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
@@ -686,7 +686,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -704,11 +704,13 @@
         <v>22</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
@@ -725,7 +727,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">

--- a/sc2002/target/classes/Appointment.xlsx
+++ b/sc2002/target/classes/Appointment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>Patient ID</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Available</t>
   </si>
   <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>19/10/2024</t>
+  </si>
+  <si>
     <t>Pending</t>
   </si>
   <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>19/10/2024</t>
-  </si>
-  <si>
     <t>11:00</t>
   </si>
   <si>
-    <t/>
+    <t>Confirmed</t>
   </si>
 </sst>
 </file>
@@ -639,9 +639,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
@@ -662,9 +660,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
@@ -685,9 +681,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
@@ -698,10 +692,10 @@
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>19</v>
@@ -718,16 +712,16 @@
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
@@ -741,7 +735,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>24</v>
@@ -750,7 +744,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/sc2002/target/classes/Appointment.xlsx
+++ b/sc2002/target/classes/Appointment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>Patient ID</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>11:00</t>
-  </si>
-  <si>
-    <t>Confirmed</t>
   </si>
 </sst>
 </file>
@@ -516,13 +513,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="12.576428571428572"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="12.576428571428572"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="9" width="16.290714285714284"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="16.290714285714284"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="22.005"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="22.005"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="8" width="12.576428571428572"/>
+    <col min="1" max="1" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -721,7 +718,7 @@
         <v>21</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">

--- a/sc2002/target/classes/Appointment.xlsx
+++ b/sc2002/target/classes/Appointment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>Patient ID</t>
   </si>
@@ -85,10 +85,13 @@
     <t>19/10/2024</t>
   </si>
   <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
     <t>Pending</t>
-  </si>
-  <si>
-    <t>11:00</t>
   </si>
 </sst>
 </file>
@@ -513,13 +516,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="12.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="12.576428571428572"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="9" width="16.290714285714284"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="16.290714285714284"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="22.005"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="22.005"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="8" width="12.576428571428572"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -718,7 +721,7 @@
         <v>21</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
@@ -741,7 +744,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/sc2002/target/classes/Appointment.xlsx
+++ b/sc2002/target/classes/Appointment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
   <si>
     <t>Patient ID</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>26/10/2024</t>
   </si>
 </sst>
 </file>
@@ -510,7 +516,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -681,7 +687,9 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
@@ -698,7 +706,7 @@
         <v>21</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
@@ -726,7 +734,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
@@ -744,6 +752,29 @@
         <v>14</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="D11" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s" s="8">
         <v>25</v>
       </c>
     </row>

--- a/sc2002/target/classes/Appointment.xlsx
+++ b/sc2002/target/classes/Appointment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
   <si>
     <t>Patient ID</t>
   </si>
@@ -82,19 +82,16 @@
     <t>18:00</t>
   </si>
   <si>
+    <t>Pending</t>
+  </si>
+  <si>
     <t>19/10/2024</t>
   </si>
   <si>
+    <t>11:00</t>
+  </si>
+  <si>
     <t>Confirmed</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>26/10/2024</t>
@@ -105,7 +102,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +134,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -182,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,6 +206,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -522,13 +531,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="12.576428571428572"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="12.576428571428572"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="9" width="16.290714285714284"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="16.290714285714284"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="22.005"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="22.005"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="8" width="12.576428571428572"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="12.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="10" width="12.576428571428572"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="11" width="16.290714285714284"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="16.290714285714284"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="12" width="22.005"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="12" width="22.005"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="10" width="12.576428571428572"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -706,7 +715,7 @@
         <v>21</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
@@ -720,7 +729,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>20</v>
@@ -734,7 +743,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
@@ -743,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>24</v>
@@ -752,30 +761,30 @@
         <v>14</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s" s="8">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="n" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="D11" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s" s="10">
+      <c r="C11" s="8">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="s" s="10">
+      <c r="F11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="s" s="8">
-        <v>25</v>
+      <c r="G11" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/sc2002/target/classes/Appointment.xlsx
+++ b/sc2002/target/classes/Appointment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
   <si>
     <t>Patient ID</t>
   </si>
@@ -91,10 +91,10 @@
     <t>11:00</t>
   </si>
   <si>
+    <t>26/10/2024</t>
+  </si>
+  <si>
     <t>Confirmed</t>
-  </si>
-  <si>
-    <t>26/10/2024</t>
   </si>
 </sst>
 </file>
@@ -102,7 +102,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,12 +134,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -185,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -206,12 +200,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -531,13 +519,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="12.576428571428572"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="10" width="12.576428571428572"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="11" width="16.290714285714284"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="16.290714285714284"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="12" width="22.005"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="12" width="22.005"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="10" width="12.576428571428572"/>
+    <col min="1" max="1" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -764,27 +752,27 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/sc2002/target/classes/Appointment.xlsx
+++ b/sc2002/target/classes/Appointment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
   <si>
     <t>Patient ID</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Confirmed</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>29/10/2024</t>
   </si>
 </sst>
 </file>
@@ -513,19 +519,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="12.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="12.576428571428572"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="9" width="16.290714285714284"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="16.290714285714284"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="22.005"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="22.005"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="8" width="12.576428571428572"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -775,6 +781,29 @@
         <v>26</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="C12" t="n" s="9">
+        <v>11.0</v>
+      </c>
+      <c r="D12" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s" s="8">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sc2002/target/classes/Appointment.xlsx
+++ b/sc2002/target/classes/Appointment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>Patient ID</t>
   </si>
@@ -97,10 +97,10 @@
     <t>Confirmed</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>29/10/2024</t>
+  </si>
+  <si>
+    <t>Declined</t>
   </si>
 </sst>
 </file>
@@ -108,7 +108,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +140,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -185,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -206,6 +212,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -525,13 +537,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="12.576428571428572"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="12.576428571428572"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="9" width="16.290714285714284"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="16.290714285714284"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="22.005"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="22.005"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="8" width="12.576428571428572"/>
+    <col min="1" max="1" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -781,27 +793,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="8">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s" s="8">
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="n" s="9">
-        <v>11.0</v>
-      </c>
-      <c r="D12" t="s" s="8">
+      <c r="C12" s="8">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="E12" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s" s="8">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/sc2002/target/classes/Appointment.xlsx
+++ b/sc2002/target/classes/Appointment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
   <si>
     <t>Patient ID</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>Declined</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>10/11/2024</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
   </si>
 </sst>
 </file>
@@ -531,19 +543,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="12.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="10" width="12.576428571428572"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="11" width="16.290714285714284"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="16.290714285714284"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="12" width="22.005"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="12" width="22.005"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="10" width="12.576428571428572"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -816,6 +828,29 @@
         <v>28</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="C13" t="n" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="D13" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s" s="10">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sc2002/target/classes/Appointment.xlsx
+++ b/sc2002/target/classes/Appointment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>Patient ID</t>
   </si>
@@ -70,49 +70,43 @@
     <t>16:00</t>
   </si>
   <si>
-    <t>18/10/2024</t>
+    <t>19/10/2024</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>10/11/2024</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
   </si>
   <si>
     <t>Available</t>
   </si>
   <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>18:00</t>
+    <t>11/11/2024</t>
   </si>
   <si>
     <t>Pending</t>
   </si>
   <si>
-    <t>19/10/2024</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>26/10/2024</t>
-  </si>
-  <si>
     <t>Confirmed</t>
   </si>
   <si>
-    <t>29/10/2024</t>
-  </si>
-  <si>
     <t>Declined</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>10/11/2024</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>10:00</t>
   </si>
 </sst>
 </file>
@@ -120,7 +114,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,12 +146,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -203,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,12 +212,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -543,19 +525,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="12.576428571428572"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="10" width="12.576428571428572"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="11" width="16.290714285714284"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="16.290714285714284"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="12" width="22.005"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="12" width="22.005"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="10" width="12.576428571428572"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="12.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="12.576428571428572"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="9" width="16.290714285714284"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="16.290714285714284"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="22.005"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="22.005"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="8" width="12.576428571428572"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -651,204 +633,95 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="5">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="D7" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n" s="9">
+        <v>11.0</v>
+      </c>
+      <c r="D8" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="8">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s" s="10">
-        <v>8</v>
-      </c>
-      <c r="C13" t="n" s="11">
-        <v>12.0</v>
-      </c>
-      <c r="D13" t="s" s="10">
+      <c r="G8" t="s" s="8">
         <v>30</v>
-      </c>
-      <c r="E13" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s" s="10">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/sc2002/target/classes/Appointment.xlsx
+++ b/sc2002/target/classes/Appointment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="35">
   <si>
     <t>Patient ID</t>
   </si>
@@ -101,6 +101,24 @@
   </si>
   <si>
     <t>Declined</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>09/11/2024</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>10/11/2024</t>
+  </si>
+  <si>
+    <t>11/11/2024</t>
   </si>
 </sst>
 </file>
@@ -531,19 +549,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="12.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="10" width="12.576428571428572"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="11" width="16.290714285714284"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="16.290714285714284"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="12" width="22.005"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="12" width="22.005"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="10" width="12.576428571428572"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -790,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
@@ -814,6 +832,75 @@
       </c>
       <c r="G12" s="4" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="C13" t="n" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="D13" t="s" s="10">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n" s="11">
+        <v>13.0</v>
+      </c>
+      <c r="D14" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n" s="11">
+        <v>14.0</v>
+      </c>
+      <c r="D15" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s" s="12">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s" s="10">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
